--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H2">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="N2">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="O2">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="P2">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="Q2">
-        <v>15395.01258791072</v>
+        <v>15792.25516494168</v>
       </c>
       <c r="R2">
-        <v>15395.01258791072</v>
+        <v>142130.2964844751</v>
       </c>
       <c r="S2">
-        <v>0.6714156971500148</v>
+        <v>0.6688781587269128</v>
       </c>
       <c r="T2">
-        <v>0.6714156971500148</v>
+        <v>0.6688781587269127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H3">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="N3">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="O3">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="P3">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="Q3">
-        <v>213.2012412546837</v>
+        <v>219.444223130588</v>
       </c>
       <c r="R3">
-        <v>213.2012412546837</v>
+        <v>1974.998008175292</v>
       </c>
       <c r="S3">
-        <v>0.009298248975948943</v>
+        <v>0.009294521040712147</v>
       </c>
       <c r="T3">
-        <v>0.009298248975948943</v>
+        <v>0.009294521040712147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H4">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I4">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J4">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.73488264164217</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="N4">
-        <v>1.73488264164217</v>
+        <v>5.876185</v>
       </c>
       <c r="O4">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="P4">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="Q4">
-        <v>66.02325333149612</v>
+        <v>76.33067945565999</v>
       </c>
       <c r="R4">
-        <v>66.02325333149612</v>
+        <v>686.97611510094</v>
       </c>
       <c r="S4">
-        <v>0.002879442183664655</v>
+        <v>0.003232972352297006</v>
       </c>
       <c r="T4">
-        <v>0.002879442183664655</v>
+        <v>0.003232972352297006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H5">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I5">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J5">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.91962081648807</v>
+        <v>3.263573</v>
       </c>
       <c r="N5">
-        <v>2.91962081648807</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="O5">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="P5">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="Q5">
-        <v>111.1100314061819</v>
+        <v>127.179834132084</v>
       </c>
       <c r="R5">
-        <v>111.1100314061819</v>
+        <v>1144.618507188756</v>
       </c>
       <c r="S5">
-        <v>0.004845791373728646</v>
+        <v>0.005386679254671014</v>
       </c>
       <c r="T5">
-        <v>0.004845791373728646</v>
+        <v>0.005386679254671013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H6">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I6">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J6">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.06048449615627</v>
+        <v>1.176160333333333</v>
       </c>
       <c r="N6">
-        <v>1.06048449615627</v>
+        <v>3.528481</v>
       </c>
       <c r="O6">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="P6">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="Q6">
-        <v>40.35814000512134</v>
+        <v>45.83438951911599</v>
       </c>
       <c r="R6">
-        <v>40.35814000512134</v>
+        <v>412.509505672044</v>
       </c>
       <c r="S6">
-        <v>0.001760121243973197</v>
+        <v>0.001941307416054003</v>
       </c>
       <c r="T6">
-        <v>0.001760121243973197</v>
+        <v>0.001941307416054003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H7">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J7">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="N7">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="O7">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="P7">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="Q7">
-        <v>3914.845212229398</v>
+        <v>3925.107930097954</v>
       </c>
       <c r="R7">
-        <v>3914.845212229398</v>
+        <v>35325.97137088158</v>
       </c>
       <c r="S7">
-        <v>0.1707363675342155</v>
+        <v>0.166247248266142</v>
       </c>
       <c r="T7">
-        <v>0.1707363675342155</v>
+        <v>0.166247248266142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H8">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I8">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J8">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="N8">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="O8">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="P8">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="Q8">
-        <v>54.21560091627926</v>
+        <v>54.54206833842256</v>
       </c>
       <c r="R8">
-        <v>54.21560091627926</v>
+        <v>490.8786150458031</v>
       </c>
       <c r="S8">
-        <v>0.002364480397644851</v>
+        <v>0.002310119603712486</v>
       </c>
       <c r="T8">
-        <v>0.002364480397644851</v>
+        <v>0.002310119603712486</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H9">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I9">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J9">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.73488264164217</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="N9">
-        <v>1.73488264164217</v>
+        <v>5.876185</v>
       </c>
       <c r="O9">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="P9">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="Q9">
-        <v>16.78925663260492</v>
+        <v>18.97171443292611</v>
       </c>
       <c r="R9">
-        <v>16.78925663260492</v>
+        <v>170.745429896335</v>
       </c>
       <c r="S9">
-        <v>0.000732222229909898</v>
+        <v>0.0008035435905290654</v>
       </c>
       <c r="T9">
-        <v>0.000732222229909898</v>
+        <v>0.0008035435905290652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H10">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I10">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J10">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.91962081648807</v>
+        <v>3.263573</v>
       </c>
       <c r="N10">
-        <v>2.91962081648807</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="O10">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="P10">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="Q10">
-        <v>28.2545124271432</v>
+        <v>31.61008800114766</v>
       </c>
       <c r="R10">
-        <v>28.2545124271432</v>
+        <v>284.490792010329</v>
       </c>
       <c r="S10">
-        <v>0.001232251227504753</v>
+        <v>0.001338839655171023</v>
       </c>
       <c r="T10">
-        <v>0.001232251227504753</v>
+        <v>0.001338839655171023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H11">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I11">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J11">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.06048449615627</v>
+        <v>1.176160333333333</v>
       </c>
       <c r="N11">
-        <v>1.06048449615627</v>
+        <v>3.528481</v>
       </c>
       <c r="O11">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="P11">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="Q11">
-        <v>10.26279584192109</v>
+        <v>11.39197181743011</v>
       </c>
       <c r="R11">
-        <v>10.26279584192109</v>
+        <v>102.527746356871</v>
       </c>
       <c r="S11">
-        <v>0.000447586657403757</v>
+        <v>0.0004825049401701252</v>
       </c>
       <c r="T11">
-        <v>0.000447586657403757</v>
+        <v>0.0004825049401701252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.559564399262086</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H12">
-        <v>0.559564399262086</v>
+        <v>1.82029</v>
       </c>
       <c r="I12">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J12">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="N12">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="O12">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="P12">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="Q12">
-        <v>226.3618868475794</v>
+        <v>245.8886928911333</v>
       </c>
       <c r="R12">
-        <v>226.3618868475794</v>
+        <v>2212.9982360202</v>
       </c>
       <c r="S12">
-        <v>0.009872218239386714</v>
+        <v>0.01041457185405071</v>
       </c>
       <c r="T12">
-        <v>0.009872218239386714</v>
+        <v>0.01041457185405071</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.559564399262086</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H13">
-        <v>0.559564399262086</v>
+        <v>1.82029</v>
       </c>
       <c r="I13">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J13">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="N13">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="O13">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="P13">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="Q13">
-        <v>3.13482272086961</v>
+        <v>3.416792131618889</v>
       </c>
       <c r="R13">
-        <v>3.13482272086961</v>
+        <v>30.75112918457</v>
       </c>
       <c r="S13">
-        <v>0.0001367176006226323</v>
+        <v>0.0001447176230297623</v>
       </c>
       <c r="T13">
-        <v>0.0001367176006226323</v>
+        <v>0.0001447176230297623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.559564399262086</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H14">
-        <v>0.559564399262086</v>
+        <v>1.82029</v>
       </c>
       <c r="I14">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J14">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.73488264164217</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="N14">
-        <v>1.73488264164217</v>
+        <v>5.876185</v>
       </c>
       <c r="O14">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="P14">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="Q14">
-        <v>0.9707785631607218</v>
+        <v>1.188484532627778</v>
       </c>
       <c r="R14">
-        <v>0.9707785631607218</v>
+        <v>10.69636079365</v>
       </c>
       <c r="S14">
-        <v>4.233812489862353E-05</v>
+        <v>5.03380509975707E-05</v>
       </c>
       <c r="T14">
-        <v>4.233812489862353E-05</v>
+        <v>5.033805099757069E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.559564399262086</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H15">
-        <v>0.559564399262086</v>
+        <v>1.82029</v>
       </c>
       <c r="I15">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J15">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.91962081648807</v>
+        <v>3.263573</v>
       </c>
       <c r="N15">
-        <v>2.91962081648807</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="O15">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="P15">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="Q15">
-        <v>1.633715868251228</v>
+        <v>1.980216432056666</v>
       </c>
       <c r="R15">
-        <v>1.633715868251228</v>
+        <v>17.82194788851</v>
       </c>
       <c r="S15">
-        <v>7.125050871918788E-05</v>
+        <v>8.387171478176477E-05</v>
       </c>
       <c r="T15">
-        <v>7.125050871918788E-05</v>
+        <v>8.387171478176475E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.559564399262086</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H16">
-        <v>0.559564399262086</v>
+        <v>1.82029</v>
       </c>
       <c r="I16">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J16">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.06048449615627</v>
+        <v>1.176160333333333</v>
       </c>
       <c r="N16">
-        <v>1.06048449615627</v>
+        <v>3.528481</v>
       </c>
       <c r="O16">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="P16">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="Q16">
-        <v>0.5934093700184392</v>
+        <v>0.7136509643877778</v>
       </c>
       <c r="R16">
-        <v>0.5934093700184392</v>
+        <v>6.422858679489999</v>
       </c>
       <c r="S16">
-        <v>2.588009354270701E-05</v>
+        <v>3.022655966787283E-05</v>
       </c>
       <c r="T16">
-        <v>2.588009354270701E-05</v>
+        <v>3.022655966787282E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.395774929194067</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H17">
-        <v>0.395774929194067</v>
+        <v>1.436248</v>
       </c>
       <c r="I17">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J17">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="N17">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="O17">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="P17">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="Q17">
-        <v>160.1037518782091</v>
+        <v>194.0114725606933</v>
       </c>
       <c r="R17">
-        <v>160.1037518782091</v>
+        <v>1746.10325304624</v>
       </c>
       <c r="S17">
-        <v>0.006982532269447737</v>
+        <v>0.0082173214137509</v>
       </c>
       <c r="T17">
-        <v>0.006982532269447737</v>
+        <v>0.0082173214137509</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.395774929194067</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H18">
-        <v>0.395774929194067</v>
+        <v>1.436248</v>
       </c>
       <c r="I18">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J18">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="N18">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="O18">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="P18">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="Q18">
-        <v>2.217232264998004</v>
+        <v>2.695922553798222</v>
       </c>
       <c r="R18">
-        <v>2.217232264998004</v>
+        <v>24.263302984184</v>
       </c>
       <c r="S18">
-        <v>9.669914450840813E-05</v>
+        <v>0.00011418532027383</v>
       </c>
       <c r="T18">
-        <v>9.669914450840813E-05</v>
+        <v>0.00011418532027383</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.395774929194067</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H19">
-        <v>0.395774929194067</v>
+        <v>1.436248</v>
       </c>
       <c r="I19">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J19">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.73488264164217</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="N19">
-        <v>1.73488264164217</v>
+        <v>5.876185</v>
       </c>
       <c r="O19">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="P19">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="Q19">
-        <v>0.6866230546559458</v>
+        <v>0.9377398837644443</v>
       </c>
       <c r="R19">
-        <v>0.6866230546559458</v>
+        <v>8.439658953879999</v>
       </c>
       <c r="S19">
-        <v>2.994537966686124E-05</v>
+        <v>3.971780599198969E-05</v>
       </c>
       <c r="T19">
-        <v>2.994537966686124E-05</v>
+        <v>3.971780599198969E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.395774929194067</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H20">
-        <v>0.395774929194067</v>
+        <v>1.436248</v>
       </c>
       <c r="I20">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J20">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.91962081648807</v>
+        <v>3.263573</v>
       </c>
       <c r="N20">
-        <v>2.91962081648807</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="O20">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="P20">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="Q20">
-        <v>1.15551272191909</v>
+        <v>1.562433398034666</v>
       </c>
       <c r="R20">
-        <v>1.15551272191909</v>
+        <v>14.061900582312</v>
       </c>
       <c r="S20">
-        <v>5.039485192511335E-05</v>
+        <v>6.61765886819573E-05</v>
       </c>
       <c r="T20">
-        <v>5.039485192511335E-05</v>
+        <v>6.61765886819573E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.395774929194067</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H21">
-        <v>0.395774929194067</v>
+        <v>1.436248</v>
       </c>
       <c r="I21">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J21">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.06048449615627</v>
+        <v>1.176160333333333</v>
       </c>
       <c r="N21">
-        <v>1.06048449615627</v>
+        <v>3.528481</v>
       </c>
       <c r="O21">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="P21">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="Q21">
-        <v>0.4197131763776536</v>
+        <v>0.5630859754764443</v>
       </c>
       <c r="R21">
-        <v>0.4197131763776536</v>
+        <v>5.067773779287999</v>
       </c>
       <c r="S21">
-        <v>1.830476027943886E-05</v>
+        <v>2.384940634177137E-05</v>
       </c>
       <c r="T21">
-        <v>1.830476027943886E-05</v>
+        <v>2.384940634177137E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.44904296792746</v>
+        <v>6.840640999999999</v>
       </c>
       <c r="H22">
-        <v>6.44904296792746</v>
+        <v>20.521923</v>
       </c>
       <c r="I22">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="J22">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="N22">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="O22">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="P22">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="Q22">
-        <v>2608.846339235086</v>
+        <v>2772.14554938086</v>
       </c>
       <c r="R22">
-        <v>2608.846339235086</v>
+        <v>24949.30994442774</v>
       </c>
       <c r="S22">
-        <v>0.1137784313986394</v>
+        <v>0.1174137316948376</v>
       </c>
       <c r="T22">
-        <v>0.1137784313986394</v>
+        <v>0.1174137316948376</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.44904296792746</v>
+        <v>6.840640999999999</v>
       </c>
       <c r="H23">
-        <v>6.44904296792746</v>
+        <v>20.521923</v>
       </c>
       <c r="I23">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="J23">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="N23">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="O23">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="P23">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="Q23">
-        <v>36.12918629273703</v>
+        <v>38.52086482488433</v>
       </c>
       <c r="R23">
-        <v>36.12918629273703</v>
+        <v>346.687783423959</v>
       </c>
       <c r="S23">
-        <v>0.001575685804976197</v>
+        <v>0.001631544378401138</v>
       </c>
       <c r="T23">
-        <v>0.001575685804976197</v>
+        <v>0.001631544378401138</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.44904296792746</v>
+        <v>6.840640999999999</v>
       </c>
       <c r="H24">
-        <v>6.44904296792746</v>
+        <v>20.521923</v>
       </c>
       <c r="I24">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="J24">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.73488264164217</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="N24">
-        <v>1.73488264164217</v>
+        <v>5.876185</v>
       </c>
       <c r="O24">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="P24">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="Q24">
-        <v>11.18833270026185</v>
+        <v>13.39895734486166</v>
       </c>
       <c r="R24">
-        <v>11.18833270026185</v>
+        <v>120.590616103755</v>
       </c>
       <c r="S24">
-        <v>0.0004879516763624866</v>
+        <v>0.0005675104552253866</v>
       </c>
       <c r="T24">
-        <v>0.0004879516763624866</v>
+        <v>0.0005675104552253865</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.44904296792746</v>
+        <v>6.840640999999999</v>
       </c>
       <c r="H25">
-        <v>6.44904296792746</v>
+        <v>20.521923</v>
       </c>
       <c r="I25">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="J25">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.91962081648807</v>
+        <v>3.263573</v>
       </c>
       <c r="N25">
-        <v>2.91962081648807</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="O25">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="P25">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="Q25">
-        <v>18.82876009558702</v>
+        <v>22.32493127029299</v>
       </c>
       <c r="R25">
-        <v>18.82876009558702</v>
+        <v>200.9243814326369</v>
       </c>
       <c r="S25">
-        <v>0.0008211701688361263</v>
+        <v>0.0009455684932781798</v>
       </c>
       <c r="T25">
-        <v>0.0008211701688361263</v>
+        <v>0.0009455684932781796</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.44904296792746</v>
+        <v>6.840640999999999</v>
       </c>
       <c r="H26">
-        <v>6.44904296792746</v>
+        <v>20.521923</v>
       </c>
       <c r="I26">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="J26">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.06048449615627</v>
+        <v>1.176160333333333</v>
       </c>
       <c r="N26">
-        <v>1.06048449615627</v>
+        <v>3.528481</v>
       </c>
       <c r="O26">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="P26">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="Q26">
-        <v>6.839110082532689</v>
+        <v>8.045690598773664</v>
       </c>
       <c r="R26">
-        <v>6.839110082532689</v>
+        <v>72.41121538896299</v>
       </c>
       <c r="S26">
-        <v>0.0002982710041793186</v>
+        <v>0.0003407737943179337</v>
       </c>
       <c r="T26">
-        <v>0.0002982710041793186</v>
+        <v>0.0003407737943179336</v>
       </c>
     </row>
   </sheetData>
